--- a/data/tha_provinces.xlsx
+++ b/data/tha_provinces.xlsx
@@ -5,19 +5,16 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\phata\Documents\GitHub\econvis\Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\phata\Documents\GitHub\econvis\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2EA979E6-3713-43B5-AC65-D75E056580D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0559B197-06E3-4F70-84ED-E42E160308C8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <externalReferences>
-    <externalReference r:id="rId2"/>
-  </externalReferences>
   <calcPr calcId="191029" iterate="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -47,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="390" uniqueCount="390">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="468" uniqueCount="398">
   <si>
     <t>FIPS</t>
   </si>
@@ -1217,6 +1214,30 @@
   </si>
   <si>
     <t>name_th</t>
+  </si>
+  <si>
+    <t>region</t>
+  </si>
+  <si>
+    <t>Northeastern</t>
+  </si>
+  <si>
+    <t>Central</t>
+  </si>
+  <si>
+    <t>Bangkok and Vicinities</t>
+  </si>
+  <si>
+    <t>Eastern</t>
+  </si>
+  <si>
+    <t>Northern</t>
+  </si>
+  <si>
+    <t>Southern</t>
+  </si>
+  <si>
+    <t>Western</t>
   </si>
 </sst>
 </file>
@@ -1271,70 +1292,19 @@
 </styleSheet>
 </file>
 
-<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <xxl21:alternateUrls>
-      <xxl21:absoluteUrl r:id="rId2"/>
-    </xxl21:alternateUrls>
-    <sheetNames>
-      <sheetName val="Sheet1"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0">
-        <row r="80">
-          <cell r="A80" t="str">
-            <v>NORTHEASTERN</v>
-          </cell>
-        </row>
-        <row r="81">
-          <cell r="A81" t="str">
-            <v>NORTHERN</v>
-          </cell>
-        </row>
-        <row r="82">
-          <cell r="A82" t="str">
-            <v>SOUTHERN</v>
-          </cell>
-        </row>
-        <row r="83">
-          <cell r="A83" t="str">
-            <v>EASTERN</v>
-          </cell>
-        </row>
-        <row r="84">
-          <cell r="A84" t="str">
-            <v>WESTERN</v>
-          </cell>
-        </row>
-        <row r="85">
-          <cell r="A85" t="str">
-            <v>CENTRAL</v>
-          </cell>
-        </row>
-        <row r="86">
-          <cell r="A86" t="str">
-            <v>BANGKOK AND VICINITIES</v>
-          </cell>
-        </row>
-      </sheetData>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{05F7B846-7596-420D-A1C7-5026465A86F2}" name="Table2" displayName="Table2" ref="A1:E78" totalsRowShown="0">
-  <autoFilter ref="A1:E78" xr:uid="{05F7B846-7596-420D-A1C7-5026465A86F2}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:E78">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{05F7B846-7596-420D-A1C7-5026465A86F2}" name="Table2" displayName="Table2" ref="A1:F78" totalsRowShown="0">
+  <autoFilter ref="A1:F78" xr:uid="{05F7B846-7596-420D-A1C7-5026465A86F2}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:F78">
     <sortCondition ref="A1:A78"/>
   </sortState>
-  <tableColumns count="5">
+  <tableColumns count="6">
     <tableColumn id="1" xr3:uid="{F11B6394-1007-445D-9303-D648A71C8E8B}" name="name_en"/>
     <tableColumn id="2" xr3:uid="{D02C8F43-32CA-4EF6-B689-83BF178FE72A}" name="name_th"/>
     <tableColumn id="3" xr3:uid="{7EDFCCB1-64F7-4B41-9A31-C4F5C12155F7}" name="HS"/>
     <tableColumn id="4" xr3:uid="{AA2C56B9-5764-4797-86C7-1B70C14AC4FE}" name="ISO"/>
     <tableColumn id="5" xr3:uid="{D3B6CDB2-310C-4AB9-AECA-EBF647386711}" name="FIPS"/>
+    <tableColumn id="6" xr3:uid="{DB5DB514-2CA4-488C-A210-A2C6C38B1DD5}" name="region"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1603,10 +1573,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E78"/>
+  <dimension ref="A1:F78"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H17" sqref="H17"/>
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1618,7 +1588,7 @@
     <col min="5" max="5" width="6.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>388</v>
       </c>
@@ -1634,8 +1604,11 @@
       <c r="E1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F1" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>8</v>
       </c>
@@ -1651,8 +1624,11 @@
       <c r="E2" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F2" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>13</v>
       </c>
@@ -1668,8 +1644,11 @@
       <c r="E3" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F3" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -1685,8 +1664,11 @@
       <c r="E4" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F4" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>18</v>
       </c>
@@ -1702,8 +1684,11 @@
       <c r="E5" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F5" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>23</v>
       </c>
@@ -1719,8 +1704,11 @@
       <c r="E6" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F6" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>28</v>
       </c>
@@ -1736,8 +1724,11 @@
       <c r="E7" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F7" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>33</v>
       </c>
@@ -1753,8 +1744,11 @@
       <c r="E8" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F8" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>38</v>
       </c>
@@ -1770,8 +1764,11 @@
       <c r="E9" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F9" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>43</v>
       </c>
@@ -1787,8 +1784,11 @@
       <c r="E10" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F10" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>48</v>
       </c>
@@ -1804,8 +1804,11 @@
       <c r="E11" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F11" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>53</v>
       </c>
@@ -1821,8 +1824,11 @@
       <c r="E12" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F12" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>58</v>
       </c>
@@ -1838,8 +1844,11 @@
       <c r="E13" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F13" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>63</v>
       </c>
@@ -1855,8 +1864,11 @@
       <c r="E14" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F14" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>68</v>
       </c>
@@ -1872,8 +1884,11 @@
       <c r="E15" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F15" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>73</v>
       </c>
@@ -1889,8 +1904,11 @@
       <c r="E16" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F16" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>78</v>
       </c>
@@ -1906,8 +1924,11 @@
       <c r="E17" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F17" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>83</v>
       </c>
@@ -1923,8 +1944,11 @@
       <c r="E18" t="s">
         <v>87</v>
       </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F18" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>88</v>
       </c>
@@ -1940,8 +1964,11 @@
       <c r="E19" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F19" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>93</v>
       </c>
@@ -1957,8 +1984,11 @@
       <c r="E20" t="s">
         <v>97</v>
       </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F20" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>98</v>
       </c>
@@ -1974,8 +2004,11 @@
       <c r="E21" t="s">
         <v>102</v>
       </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F21" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>103</v>
       </c>
@@ -1991,8 +2024,11 @@
       <c r="E22" t="s">
         <v>107</v>
       </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F22" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>108</v>
       </c>
@@ -2008,8 +2044,11 @@
       <c r="E23" t="s">
         <v>112</v>
       </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F23" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>113</v>
       </c>
@@ -2025,8 +2064,11 @@
       <c r="E24" t="s">
         <v>117</v>
       </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F24" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>118</v>
       </c>
@@ -2042,8 +2084,11 @@
       <c r="E25" t="s">
         <v>122</v>
       </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F25" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>123</v>
       </c>
@@ -2059,8 +2104,11 @@
       <c r="E26" t="s">
         <v>127</v>
       </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F26" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>128</v>
       </c>
@@ -2076,8 +2124,11 @@
       <c r="E27" t="s">
         <v>132</v>
       </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F27" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>133</v>
       </c>
@@ -2093,8 +2144,11 @@
       <c r="E28" t="s">
         <v>137</v>
       </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F28" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>138</v>
       </c>
@@ -2110,8 +2164,11 @@
       <c r="E29" t="s">
         <v>142</v>
       </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F29" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>143</v>
       </c>
@@ -2127,8 +2184,11 @@
       <c r="E30" t="s">
         <v>147</v>
       </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F30" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>148</v>
       </c>
@@ -2144,8 +2204,11 @@
       <c r="E31" t="s">
         <v>152</v>
       </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F31" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>153</v>
       </c>
@@ -2161,8 +2224,11 @@
       <c r="E32" t="s">
         <v>157</v>
       </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F32" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>158</v>
       </c>
@@ -2178,8 +2244,11 @@
       <c r="E33" t="s">
         <v>162</v>
       </c>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F33" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>163</v>
       </c>
@@ -2195,8 +2264,11 @@
       <c r="E34" t="s">
         <v>167</v>
       </c>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F34" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>168</v>
       </c>
@@ -2212,8 +2284,11 @@
       <c r="E35" t="s">
         <v>172</v>
       </c>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F35" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>173</v>
       </c>
@@ -2229,8 +2304,11 @@
       <c r="E36" t="s">
         <v>177</v>
       </c>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F36" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>178</v>
       </c>
@@ -2246,8 +2324,11 @@
       <c r="E37" t="s">
         <v>182</v>
       </c>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F37" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>183</v>
       </c>
@@ -2263,8 +2344,11 @@
       <c r="E38" t="s">
         <v>187</v>
       </c>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F38" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>188</v>
       </c>
@@ -2280,8 +2364,11 @@
       <c r="E39" t="s">
         <v>192</v>
       </c>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F39" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>193</v>
       </c>
@@ -2297,8 +2384,11 @@
       <c r="E40" t="s">
         <v>197</v>
       </c>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F40" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>198</v>
       </c>
@@ -2314,8 +2404,11 @@
       <c r="E41" t="s">
         <v>202</v>
       </c>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F41" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>203</v>
       </c>
@@ -2331,8 +2424,11 @@
       <c r="E42" t="s">
         <v>207</v>
       </c>
-    </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F42" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>208</v>
       </c>
@@ -2348,8 +2444,11 @@
       <c r="E43" t="s">
         <v>212</v>
       </c>
-    </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F43" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>213</v>
       </c>
@@ -2365,8 +2464,11 @@
       <c r="E44" t="s">
         <v>217</v>
       </c>
-    </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F44" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>218</v>
       </c>
@@ -2382,8 +2484,11 @@
       <c r="E45" t="s">
         <v>222</v>
       </c>
-    </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F45" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>223</v>
       </c>
@@ -2399,8 +2504,11 @@
       <c r="E46" t="s">
         <v>227</v>
       </c>
-    </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F46" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>228</v>
       </c>
@@ -2416,8 +2524,11 @@
       <c r="E47" t="s">
         <v>232</v>
       </c>
-    </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F47" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>233</v>
       </c>
@@ -2433,8 +2544,11 @@
       <c r="E48" t="s">
         <v>237</v>
       </c>
-    </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F48" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>238</v>
       </c>
@@ -2450,8 +2564,11 @@
       <c r="E49" t="s">
         <v>242</v>
       </c>
-    </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F49" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>243</v>
       </c>
@@ -2467,8 +2584,11 @@
       <c r="E50" t="s">
         <v>247</v>
       </c>
-    </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F50" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>248</v>
       </c>
@@ -2484,8 +2604,11 @@
       <c r="E51" t="s">
         <v>252</v>
       </c>
-    </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F51" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>253</v>
       </c>
@@ -2501,8 +2624,11 @@
       <c r="E52" t="s">
         <v>257</v>
       </c>
-    </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F52" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>258</v>
       </c>
@@ -2518,8 +2644,11 @@
       <c r="E53" t="s">
         <v>262</v>
       </c>
-    </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F53" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>263</v>
       </c>
@@ -2535,8 +2664,11 @@
       <c r="E54" t="s">
         <v>267</v>
       </c>
-    </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F54" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>268</v>
       </c>
@@ -2552,8 +2684,11 @@
       <c r="E55" t="s">
         <v>272</v>
       </c>
-    </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F55" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>273</v>
       </c>
@@ -2569,8 +2704,11 @@
       <c r="E56" t="s">
         <v>277</v>
       </c>
-    </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F56" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>278</v>
       </c>
@@ -2586,8 +2724,11 @@
       <c r="E57" t="s">
         <v>282</v>
       </c>
-    </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F57" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>283</v>
       </c>
@@ -2603,8 +2744,11 @@
       <c r="E58" t="s">
         <v>287</v>
       </c>
-    </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F58" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>288</v>
       </c>
@@ -2620,8 +2764,11 @@
       <c r="E59" t="s">
         <v>292</v>
       </c>
-    </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F59" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>293</v>
       </c>
@@ -2637,8 +2784,11 @@
       <c r="E60" t="s">
         <v>297</v>
       </c>
-    </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F60" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>298</v>
       </c>
@@ -2654,8 +2804,11 @@
       <c r="E61" t="s">
         <v>302</v>
       </c>
-    </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F61" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>303</v>
       </c>
@@ -2671,8 +2824,11 @@
       <c r="E62" t="s">
         <v>307</v>
       </c>
-    </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F62" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>308</v>
       </c>
@@ -2688,8 +2844,11 @@
       <c r="E63" t="s">
         <v>312</v>
       </c>
-    </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F63" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>313</v>
       </c>
@@ -2705,8 +2864,11 @@
       <c r="E64" t="s">
         <v>317</v>
       </c>
-    </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F64" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>318</v>
       </c>
@@ -2722,8 +2884,11 @@
       <c r="E65" t="s">
         <v>322</v>
       </c>
-    </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F65" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>323</v>
       </c>
@@ -2739,8 +2904,11 @@
       <c r="E66" t="s">
         <v>327</v>
       </c>
-    </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F66" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>328</v>
       </c>
@@ -2756,8 +2924,11 @@
       <c r="E67" t="s">
         <v>332</v>
       </c>
-    </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F67" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>333</v>
       </c>
@@ -2773,8 +2944,11 @@
       <c r="E68" t="s">
         <v>337</v>
       </c>
-    </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F68" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>338</v>
       </c>
@@ -2790,8 +2964,11 @@
       <c r="E69" t="s">
         <v>342</v>
       </c>
-    </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F69" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>343</v>
       </c>
@@ -2807,8 +2984,11 @@
       <c r="E70" t="s">
         <v>347</v>
       </c>
-    </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F70" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>348</v>
       </c>
@@ -2824,8 +3004,11 @@
       <c r="E71" t="s">
         <v>352</v>
       </c>
-    </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F71" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>353</v>
       </c>
@@ -2841,8 +3024,11 @@
       <c r="E72" t="s">
         <v>357</v>
       </c>
-    </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F72" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>358</v>
       </c>
@@ -2858,8 +3044,11 @@
       <c r="E73" t="s">
         <v>362</v>
       </c>
-    </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F73" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>363</v>
       </c>
@@ -2875,8 +3064,11 @@
       <c r="E74" t="s">
         <v>367</v>
       </c>
-    </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F74" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>368</v>
       </c>
@@ -2892,8 +3084,11 @@
       <c r="E75" t="s">
         <v>372</v>
       </c>
-    </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F75" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>373</v>
       </c>
@@ -2909,8 +3104,11 @@
       <c r="E76" t="s">
         <v>377</v>
       </c>
-    </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F76" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>378</v>
       </c>
@@ -2926,8 +3124,11 @@
       <c r="E77" t="s">
         <v>382</v>
       </c>
-    </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F77" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>383</v>
       </c>
@@ -2942,6 +3143,9 @@
       </c>
       <c r="E78" t="s">
         <v>387</v>
+      </c>
+      <c r="F78" t="s">
+        <v>391</v>
       </c>
     </row>
   </sheetData>

--- a/data/tha_provinces.xlsx
+++ b/data/tha_provinces.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\phata\Documents\GitHub\econvis\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0559B197-06E3-4F70-84ED-E42E160308C8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FCD8AE81-8909-44DD-94F4-ADB18CBA6C35}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="468" uniqueCount="398">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="473" uniqueCount="403">
   <si>
     <t>FIPS</t>
   </si>
@@ -1238,6 +1238,21 @@
   </si>
   <si>
     <t>Western</t>
+  </si>
+  <si>
+    <t>pop_2022</t>
+  </si>
+  <si>
+    <t>pop_2022_male</t>
+  </si>
+  <si>
+    <t>pop_2022_female</t>
+  </si>
+  <si>
+    <t>n_households</t>
+  </si>
+  <si>
+    <t>area_sqm</t>
   </si>
 </sst>
 </file>
@@ -1293,18 +1308,23 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{05F7B846-7596-420D-A1C7-5026465A86F2}" name="Table2" displayName="Table2" ref="A1:F78" totalsRowShown="0">
-  <autoFilter ref="A1:F78" xr:uid="{05F7B846-7596-420D-A1C7-5026465A86F2}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{05F7B846-7596-420D-A1C7-5026465A86F2}" name="Table2" displayName="Table2" ref="A1:K78" totalsRowShown="0">
+  <autoFilter ref="A1:K78" xr:uid="{05F7B846-7596-420D-A1C7-5026465A86F2}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:F78">
     <sortCondition ref="A1:A78"/>
   </sortState>
-  <tableColumns count="6">
+  <tableColumns count="11">
     <tableColumn id="1" xr3:uid="{F11B6394-1007-445D-9303-D648A71C8E8B}" name="name_en"/>
     <tableColumn id="2" xr3:uid="{D02C8F43-32CA-4EF6-B689-83BF178FE72A}" name="name_th"/>
     <tableColumn id="3" xr3:uid="{7EDFCCB1-64F7-4B41-9A31-C4F5C12155F7}" name="HS"/>
     <tableColumn id="4" xr3:uid="{AA2C56B9-5764-4797-86C7-1B70C14AC4FE}" name="ISO"/>
     <tableColumn id="5" xr3:uid="{D3B6CDB2-310C-4AB9-AECA-EBF647386711}" name="FIPS"/>
     <tableColumn id="6" xr3:uid="{DB5DB514-2CA4-488C-A210-A2C6C38B1DD5}" name="region"/>
+    <tableColumn id="7" xr3:uid="{80594BFE-4185-4313-9EFE-AB1225150DC2}" name="pop_2022"/>
+    <tableColumn id="8" xr3:uid="{24CBBBC1-2050-4961-AD87-B721B80CEFC6}" name="pop_2022_male"/>
+    <tableColumn id="9" xr3:uid="{2A231B9E-956E-48B6-9C03-39DADF1F7931}" name="pop_2022_female"/>
+    <tableColumn id="10" xr3:uid="{D3EF531F-B33A-4F13-9580-F8FD515E3B04}" name="n_households"/>
+    <tableColumn id="11" xr3:uid="{2DA199E6-BBFD-4D5A-A15E-60BB435CF88C}" name="area_sqm"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1573,10 +1593,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F78"/>
+  <dimension ref="A1:K78"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+      <selection activeCell="J8" sqref="J8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1588,7 +1608,7 @@
     <col min="5" max="5" width="6.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>388</v>
       </c>
@@ -1607,8 +1627,23 @@
       <c r="F1" t="s">
         <v>390</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G1" t="s">
+        <v>398</v>
+      </c>
+      <c r="H1" t="s">
+        <v>399</v>
+      </c>
+      <c r="I1" t="s">
+        <v>400</v>
+      </c>
+      <c r="J1" t="s">
+        <v>401</v>
+      </c>
+      <c r="K1" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>8</v>
       </c>
@@ -1627,8 +1662,23 @@
       <c r="F2" t="s">
         <v>391</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G2">
+        <v>375382</v>
+      </c>
+      <c r="H2">
+        <v>186594</v>
+      </c>
+      <c r="I2">
+        <v>188788</v>
+      </c>
+      <c r="J2">
+        <v>125118</v>
+      </c>
+      <c r="K2">
+        <v>3161.248</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>13</v>
       </c>
@@ -1647,8 +1697,23 @@
       <c r="F3" t="s">
         <v>392</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G3">
+        <v>272587</v>
+      </c>
+      <c r="H3">
+        <v>130337</v>
+      </c>
+      <c r="I3">
+        <v>142250</v>
+      </c>
+      <c r="J3">
+        <v>102932</v>
+      </c>
+      <c r="K3">
+        <v>968.37199999999996</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -1667,8 +1732,23 @@
       <c r="F4" t="s">
         <v>393</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G4">
+        <v>5494932</v>
+      </c>
+      <c r="H4">
+        <v>2571974</v>
+      </c>
+      <c r="I4">
+        <v>2922958</v>
+      </c>
+      <c r="J4">
+        <v>3197865</v>
+      </c>
+      <c r="K4">
+        <v>1568.7370000000001</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>18</v>
       </c>
@@ -1687,8 +1767,23 @@
       <c r="F5" t="s">
         <v>391</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G5">
+        <v>421684</v>
+      </c>
+      <c r="H5">
+        <v>211158</v>
+      </c>
+      <c r="I5">
+        <v>210526</v>
+      </c>
+      <c r="J5">
+        <v>143368</v>
+      </c>
+      <c r="K5">
+        <v>4305</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>23</v>
       </c>
@@ -1707,8 +1802,23 @@
       <c r="F6" t="s">
         <v>391</v>
       </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G6">
+        <v>1576915</v>
+      </c>
+      <c r="H6">
+        <v>781530</v>
+      </c>
+      <c r="I6">
+        <v>795385</v>
+      </c>
+      <c r="J6">
+        <v>490644</v>
+      </c>
+      <c r="K6">
+        <v>10322.885</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>28</v>
       </c>
@@ -1727,8 +1837,23 @@
       <c r="F7" t="s">
         <v>394</v>
       </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G7">
+        <v>726687</v>
+      </c>
+      <c r="H7">
+        <v>355759</v>
+      </c>
+      <c r="I7">
+        <v>370928</v>
+      </c>
+      <c r="J7">
+        <v>329606</v>
+      </c>
+      <c r="K7">
+        <v>5351</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>33</v>
       </c>
@@ -1747,8 +1872,23 @@
       <c r="F8" t="s">
         <v>392</v>
       </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G8">
+        <v>318308</v>
+      </c>
+      <c r="H8">
+        <v>152800</v>
+      </c>
+      <c r="I8">
+        <v>165508</v>
+      </c>
+      <c r="J8">
+        <v>129825</v>
+      </c>
+      <c r="K8">
+        <v>2469.7460000000001</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>38</v>
       </c>
@@ -1767,8 +1907,23 @@
       <c r="F9" t="s">
         <v>391</v>
       </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G9">
+        <v>1117925</v>
+      </c>
+      <c r="H9">
+        <v>551407</v>
+      </c>
+      <c r="I9">
+        <v>566518</v>
+      </c>
+      <c r="J9">
+        <v>413107</v>
+      </c>
+      <c r="K9">
+        <v>12778.287</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>43</v>
       </c>
@@ -1787,8 +1942,23 @@
       <c r="F10" t="s">
         <v>394</v>
       </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G10">
+        <v>536144</v>
+      </c>
+      <c r="H10">
+        <v>261874</v>
+      </c>
+      <c r="I10">
+        <v>274270</v>
+      </c>
+      <c r="J10">
+        <v>252725</v>
+      </c>
+      <c r="K10">
+        <v>6338</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>48</v>
       </c>
@@ -1807,8 +1977,23 @@
       <c r="F11" t="s">
         <v>395</v>
       </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G11">
+        <v>1792474</v>
+      </c>
+      <c r="H11">
+        <v>864339</v>
+      </c>
+      <c r="I11">
+        <v>928135</v>
+      </c>
+      <c r="J11">
+        <v>866675</v>
+      </c>
+      <c r="K11">
+        <v>20107.057000000001</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>53</v>
       </c>
@@ -1827,8 +2012,23 @@
       <c r="F12" t="s">
         <v>395</v>
       </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G12">
+        <v>1299636</v>
+      </c>
+      <c r="H12">
+        <v>630619</v>
+      </c>
+      <c r="I12">
+        <v>669017</v>
+      </c>
+      <c r="J12">
+        <v>579417</v>
+      </c>
+      <c r="K12">
+        <v>11678.369000000001</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>58</v>
       </c>
@@ -1847,8 +2047,23 @@
       <c r="F13" t="s">
         <v>394</v>
       </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G13">
+        <v>1594758</v>
+      </c>
+      <c r="H13">
+        <v>777220</v>
+      </c>
+      <c r="I13">
+        <v>817538</v>
+      </c>
+      <c r="J13">
+        <v>1118807</v>
+      </c>
+      <c r="K13">
+        <v>4363</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>63</v>
       </c>
@@ -1867,8 +2082,23 @@
       <c r="F14" t="s">
         <v>396</v>
       </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G14">
+        <v>509385</v>
+      </c>
+      <c r="H14">
+        <v>251226</v>
+      </c>
+      <c r="I14">
+        <v>258159</v>
+      </c>
+      <c r="J14">
+        <v>248311</v>
+      </c>
+      <c r="K14">
+        <v>6009.8490000000002</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>68</v>
       </c>
@@ -1887,8 +2117,23 @@
       <c r="F15" t="s">
         <v>391</v>
       </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G15">
+        <v>972101</v>
+      </c>
+      <c r="H15">
+        <v>479874</v>
+      </c>
+      <c r="I15">
+        <v>492227</v>
+      </c>
+      <c r="J15">
+        <v>322190</v>
+      </c>
+      <c r="K15">
+        <v>6946.7460000000001</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>73</v>
       </c>
@@ -1907,8 +2152,23 @@
       <c r="F16" t="s">
         <v>395</v>
       </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G16">
+        <v>708775</v>
+      </c>
+      <c r="H16">
+        <v>349696</v>
+      </c>
+      <c r="I16">
+        <v>359079</v>
+      </c>
+      <c r="J16">
+        <v>285190</v>
+      </c>
+      <c r="K16">
+        <v>8607.49</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>78</v>
       </c>
@@ -1927,8 +2187,23 @@
       <c r="F17" t="s">
         <v>397</v>
       </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G17">
+        <v>894283</v>
+      </c>
+      <c r="H17">
+        <v>448109</v>
+      </c>
+      <c r="I17">
+        <v>446174</v>
+      </c>
+      <c r="J17">
+        <v>359348</v>
+      </c>
+      <c r="K17">
+        <v>19483.148000000001</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>83</v>
       </c>
@@ -1947,8 +2222,23 @@
       <c r="F18" t="s">
         <v>391</v>
       </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G18">
+        <v>1784641</v>
+      </c>
+      <c r="H18">
+        <v>876082</v>
+      </c>
+      <c r="I18">
+        <v>908559</v>
+      </c>
+      <c r="J18">
+        <v>668539</v>
+      </c>
+      <c r="K18">
+        <v>10885.991</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>88</v>
       </c>
@@ -1967,8 +2257,23 @@
       <c r="F19" t="s">
         <v>396</v>
       </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G19">
+        <v>480057</v>
+      </c>
+      <c r="H19">
+        <v>238455</v>
+      </c>
+      <c r="I19">
+        <v>241602</v>
+      </c>
+      <c r="J19">
+        <v>201080</v>
+      </c>
+      <c r="K19">
+        <v>4708.5119999999997</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>93</v>
       </c>
@@ -1987,8 +2292,23 @@
       <c r="F20" t="s">
         <v>395</v>
       </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G20">
+        <v>718790</v>
+      </c>
+      <c r="H20">
+        <v>349574</v>
+      </c>
+      <c r="I20">
+        <v>369216</v>
+      </c>
+      <c r="J20">
+        <v>302165</v>
+      </c>
+      <c r="K20">
+        <v>12533.960999999999</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>98</v>
       </c>
@@ -2007,8 +2327,23 @@
       <c r="F21" t="s">
         <v>395</v>
       </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G21">
+        <v>399557</v>
+      </c>
+      <c r="H21">
+        <v>191596</v>
+      </c>
+      <c r="I21">
+        <v>207961</v>
+      </c>
+      <c r="J21">
+        <v>188061</v>
+      </c>
+      <c r="K21">
+        <v>4505.8819999999996</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>103</v>
       </c>
@@ -2027,8 +2362,23 @@
       <c r="F22" t="s">
         <v>391</v>
       </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G22">
+        <v>637341</v>
+      </c>
+      <c r="H22">
+        <v>319099</v>
+      </c>
+      <c r="I22">
+        <v>318242</v>
+      </c>
+      <c r="J22">
+        <v>234063</v>
+      </c>
+      <c r="K22">
+        <v>11424.611999999999</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>108</v>
       </c>
@@ -2047,8 +2397,23 @@
       <c r="F23" t="s">
         <v>392</v>
       </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G23">
+        <v>735293</v>
+      </c>
+      <c r="H23">
+        <v>366294</v>
+      </c>
+      <c r="I23">
+        <v>368999</v>
+      </c>
+      <c r="J23">
+        <v>299270</v>
+      </c>
+      <c r="K23">
+        <v>6199.7529999999997</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>113</v>
       </c>
@@ -2067,8 +2432,23 @@
       <c r="F24" t="s">
         <v>395</v>
       </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G24">
+        <v>286786</v>
+      </c>
+      <c r="H24">
+        <v>145194</v>
+      </c>
+      <c r="I24">
+        <v>141592</v>
+      </c>
+      <c r="J24">
+        <v>119841</v>
+      </c>
+      <c r="K24">
+        <v>12681.259</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>118</v>
       </c>
@@ -2087,8 +2467,23 @@
       <c r="F25" t="s">
         <v>391</v>
       </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G25">
+        <v>944605</v>
+      </c>
+      <c r="H25">
+        <v>462896</v>
+      </c>
+      <c r="I25">
+        <v>481709</v>
+      </c>
+      <c r="J25">
+        <v>313596</v>
+      </c>
+      <c r="K25">
+        <v>5291.683</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>123</v>
       </c>
@@ -2107,8 +2502,23 @@
       <c r="F26" t="s">
         <v>391</v>
       </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G26">
+        <v>351588</v>
+      </c>
+      <c r="H26">
+        <v>175542</v>
+      </c>
+      <c r="I26">
+        <v>176046</v>
+      </c>
+      <c r="J26">
+        <v>122358</v>
+      </c>
+      <c r="K26">
+        <v>4339.83</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>128</v>
       </c>
@@ -2127,8 +2537,23 @@
       <c r="F27" t="s">
         <v>394</v>
       </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G27">
+        <v>260406</v>
+      </c>
+      <c r="H27">
+        <v>128790</v>
+      </c>
+      <c r="I27">
+        <v>131616</v>
+      </c>
+      <c r="J27">
+        <v>106639</v>
+      </c>
+      <c r="K27">
+        <v>2122</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>133</v>
       </c>
@@ -2147,8 +2572,23 @@
       <c r="F28" t="s">
         <v>393</v>
       </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G28">
+        <v>921882</v>
+      </c>
+      <c r="H28">
+        <v>442350</v>
+      </c>
+      <c r="I28">
+        <v>479532</v>
+      </c>
+      <c r="J28">
+        <v>426205</v>
+      </c>
+      <c r="K28">
+        <v>2168.3270000000002</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>138</v>
       </c>
@@ -2167,8 +2607,23 @@
       <c r="F29" t="s">
         <v>391</v>
       </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G29">
+        <v>716647</v>
+      </c>
+      <c r="H29">
+        <v>356834</v>
+      </c>
+      <c r="I29">
+        <v>359813</v>
+      </c>
+      <c r="J29">
+        <v>239861</v>
+      </c>
+      <c r="K29">
+        <v>5512.6679999999997</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>143</v>
       </c>
@@ -2187,8 +2642,23 @@
       <c r="F30" t="s">
         <v>391</v>
       </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G30">
+        <v>2630058</v>
+      </c>
+      <c r="H30">
+        <v>1290253</v>
+      </c>
+      <c r="I30">
+        <v>1339805</v>
+      </c>
+      <c r="J30">
+        <v>1044524</v>
+      </c>
+      <c r="K30">
+        <v>20493.964</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>148</v>
       </c>
@@ -2207,8 +2677,23 @@
       <c r="F31" t="s">
         <v>395</v>
       </c>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G31">
+        <v>1028814</v>
+      </c>
+      <c r="H31">
+        <v>501235</v>
+      </c>
+      <c r="I31">
+        <v>527579</v>
+      </c>
+      <c r="J31">
+        <v>429988</v>
+      </c>
+      <c r="K31">
+        <v>9597.6769999999997</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>153</v>
       </c>
@@ -2227,8 +2712,23 @@
       <c r="F32" t="s">
         <v>396</v>
       </c>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G32">
+        <v>1545147</v>
+      </c>
+      <c r="H32">
+        <v>762647</v>
+      </c>
+      <c r="I32">
+        <v>782500</v>
+      </c>
+      <c r="J32">
+        <v>599937</v>
+      </c>
+      <c r="K32">
+        <v>9942.5020000000004</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>158</v>
       </c>
@@ -2247,8 +2747,23 @@
       <c r="F33" t="s">
         <v>395</v>
       </c>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G33">
+        <v>474539</v>
+      </c>
+      <c r="H33">
+        <v>236941</v>
+      </c>
+      <c r="I33">
+        <v>237598</v>
+      </c>
+      <c r="J33">
+        <v>175817</v>
+      </c>
+      <c r="K33">
+        <v>11472.072</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>163</v>
       </c>
@@ -2267,8 +2782,23 @@
       <c r="F34" t="s">
         <v>396</v>
       </c>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G34">
+        <v>814121</v>
+      </c>
+      <c r="H34">
+        <v>402665</v>
+      </c>
+      <c r="I34">
+        <v>411456</v>
+      </c>
+      <c r="J34">
+        <v>226505</v>
+      </c>
+      <c r="K34">
+        <v>4475.43</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>168</v>
       </c>
@@ -2287,8 +2817,23 @@
       <c r="F35" t="s">
         <v>391</v>
       </c>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G35">
+        <v>508325</v>
+      </c>
+      <c r="H35">
+        <v>253342</v>
+      </c>
+      <c r="I35">
+        <v>254983</v>
+      </c>
+      <c r="J35">
+        <v>157566</v>
+      </c>
+      <c r="K35">
+        <v>3859.0859999999998</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>173</v>
       </c>
@@ -2307,8 +2852,23 @@
       <c r="F36" t="s">
         <v>391</v>
       </c>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G36">
+        <v>515795</v>
+      </c>
+      <c r="H36">
+        <v>255393</v>
+      </c>
+      <c r="I36">
+        <v>260402</v>
+      </c>
+      <c r="J36">
+        <v>184909</v>
+      </c>
+      <c r="K36">
+        <v>3027.28</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>178</v>
       </c>
@@ -2327,8 +2887,23 @@
       <c r="F37" t="s">
         <v>393</v>
       </c>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G37">
+        <v>1295916</v>
+      </c>
+      <c r="H37">
+        <v>601682</v>
+      </c>
+      <c r="I37">
+        <v>694234</v>
+      </c>
+      <c r="J37">
+        <v>739849</v>
+      </c>
+      <c r="K37">
+        <v>622.303</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>183</v>
       </c>
@@ -2347,8 +2922,23 @@
       <c r="F38" t="s">
         <v>393</v>
       </c>
-    </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G38">
+        <v>1201532</v>
+      </c>
+      <c r="H38">
+        <v>568877</v>
+      </c>
+      <c r="I38">
+        <v>632655</v>
+      </c>
+      <c r="J38">
+        <v>677046</v>
+      </c>
+      <c r="K38">
+        <v>1525.856</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>188</v>
       </c>
@@ -2367,8 +2957,23 @@
       <c r="F39" t="s">
         <v>396</v>
       </c>
-    </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G39">
+        <v>732955</v>
+      </c>
+      <c r="H39">
+        <v>362263</v>
+      </c>
+      <c r="I39">
+        <v>370692</v>
+      </c>
+      <c r="J39">
+        <v>201433</v>
+      </c>
+      <c r="K39">
+        <v>1940.356</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>193</v>
       </c>
@@ -2387,8 +2992,23 @@
       <c r="F40" t="s">
         <v>397</v>
       </c>
-    </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G40">
+        <v>267442</v>
+      </c>
+      <c r="H40">
+        <v>133459</v>
+      </c>
+      <c r="I40">
+        <v>133983</v>
+      </c>
+      <c r="J40">
+        <v>122210</v>
+      </c>
+      <c r="K40">
+        <v>4170.8950000000004</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>198</v>
       </c>
@@ -2407,8 +3027,23 @@
       <c r="F41" t="s">
         <v>396</v>
       </c>
-    </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G41">
+        <v>521619</v>
+      </c>
+      <c r="H41">
+        <v>253817</v>
+      </c>
+      <c r="I41">
+        <v>267802</v>
+      </c>
+      <c r="J41">
+        <v>202367</v>
+      </c>
+      <c r="K41">
+        <v>3424.473</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>203</v>
       </c>
@@ -2427,8 +3062,23 @@
       <c r="F42" t="s">
         <v>396</v>
       </c>
-    </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G42">
+        <v>461431</v>
+      </c>
+      <c r="H42">
+        <v>224063</v>
+      </c>
+      <c r="I42">
+        <v>237368</v>
+      </c>
+      <c r="J42">
+        <v>199936</v>
+      </c>
+      <c r="K42">
+        <v>6335.06</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>208</v>
       </c>
@@ -2447,8 +3097,23 @@
       <c r="F43" t="s">
         <v>395</v>
       </c>
-    </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G43">
+        <v>973386</v>
+      </c>
+      <c r="H43">
+        <v>479134</v>
+      </c>
+      <c r="I43">
+        <v>494252</v>
+      </c>
+      <c r="J43">
+        <v>373933</v>
+      </c>
+      <c r="K43">
+        <v>12668.415999999999</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>213</v>
       </c>
@@ -2467,8 +3132,23 @@
       <c r="F44" t="s">
         <v>395</v>
       </c>
-    </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G44">
+        <v>482950</v>
+      </c>
+      <c r="H44">
+        <v>232601</v>
+      </c>
+      <c r="I44">
+        <v>250349</v>
+      </c>
+      <c r="J44">
+        <v>229092</v>
+      </c>
+      <c r="K44">
+        <v>6225.1379999999999</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>218</v>
       </c>
@@ -2487,8 +3167,23 @@
       <c r="F45" t="s">
         <v>397</v>
       </c>
-    </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G45">
+        <v>525944</v>
+      </c>
+      <c r="H45">
+        <v>256341</v>
+      </c>
+      <c r="I45">
+        <v>269603</v>
+      </c>
+      <c r="J45">
+        <v>202835</v>
+      </c>
+      <c r="K45">
+        <v>4531.0129999999999</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>223</v>
       </c>
@@ -2507,8 +3202,23 @@
       <c r="F46" t="s">
         <v>395</v>
       </c>
-    </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G46">
+        <v>844494</v>
+      </c>
+      <c r="H46">
+        <v>412742</v>
+      </c>
+      <c r="I46">
+        <v>431752</v>
+      </c>
+      <c r="J46">
+        <v>363476</v>
+      </c>
+      <c r="K46">
+        <v>10815.853999999999</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>228</v>
       </c>
@@ -2527,8 +3237,23 @@
       <c r="F47" t="s">
         <v>395</v>
       </c>
-    </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G47">
+        <v>820417</v>
+      </c>
+      <c r="H47">
+        <v>393685</v>
+      </c>
+      <c r="I47">
+        <v>426732</v>
+      </c>
+      <c r="J47">
+        <v>349313</v>
+      </c>
+      <c r="K47">
+        <v>2556.64</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>233</v>
       </c>
@@ -2547,8 +3272,23 @@
       <c r="F48" t="s">
         <v>392</v>
       </c>
-    </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G48">
+        <v>430669</v>
+      </c>
+      <c r="H48">
+        <v>207174</v>
+      </c>
+      <c r="I48">
+        <v>223495</v>
+      </c>
+      <c r="J48">
+        <v>182675</v>
+      </c>
+      <c r="K48">
+        <v>6538.598</v>
+      </c>
+    </row>
+    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>238</v>
       </c>
@@ -2567,8 +3307,23 @@
       <c r="F49" t="s">
         <v>395</v>
       </c>
-    </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G49">
+        <v>417891</v>
+      </c>
+      <c r="H49">
+        <v>197101</v>
+      </c>
+      <c r="I49">
+        <v>220790</v>
+      </c>
+      <c r="J49">
+        <v>281204</v>
+      </c>
+      <c r="K49">
+        <v>543.03399999999999</v>
+      </c>
+    </row>
+    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>243</v>
       </c>
@@ -2587,8 +3342,23 @@
       <c r="F50" t="s">
         <v>396</v>
       </c>
-    </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G50">
+        <v>497778</v>
+      </c>
+      <c r="H50">
+        <v>245884</v>
+      </c>
+      <c r="I50">
+        <v>251894</v>
+      </c>
+      <c r="J50">
+        <v>232139</v>
+      </c>
+      <c r="K50">
+        <v>4762.3620000000001</v>
+      </c>
+    </row>
+    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>248</v>
       </c>
@@ -2607,8 +3377,23 @@
       <c r="F51" t="s">
         <v>394</v>
       </c>
-    </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G51">
+        <v>553298</v>
+      </c>
+      <c r="H51">
+        <v>273525</v>
+      </c>
+      <c r="I51">
+        <v>279773</v>
+      </c>
+      <c r="J51">
+        <v>282967</v>
+      </c>
+      <c r="K51">
+        <v>6367.62</v>
+      </c>
+    </row>
+    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>253</v>
       </c>
@@ -2627,8 +3412,23 @@
       <c r="F52" t="s">
         <v>396</v>
       </c>
-    </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G52">
+        <v>194226</v>
+      </c>
+      <c r="H52">
+        <v>97803</v>
+      </c>
+      <c r="I52">
+        <v>96423</v>
+      </c>
+      <c r="J52">
+        <v>95752</v>
+      </c>
+      <c r="K52">
+        <v>3298.0450000000001</v>
+      </c>
+    </row>
+    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>258</v>
       </c>
@@ -2647,8 +3447,23 @@
       <c r="F53" t="s">
         <v>397</v>
       </c>
-    </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G53">
+        <v>865807</v>
+      </c>
+      <c r="H53">
+        <v>420322</v>
+      </c>
+      <c r="I53">
+        <v>445485</v>
+      </c>
+      <c r="J53">
+        <v>338676</v>
+      </c>
+      <c r="K53">
+        <v>5196.4620000000004</v>
+      </c>
+    </row>
+    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>263</v>
       </c>
@@ -2667,8 +3482,23 @@
       <c r="F54" t="s">
         <v>394</v>
       </c>
-    </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G54">
+        <v>759386</v>
+      </c>
+      <c r="H54">
+        <v>372863</v>
+      </c>
+      <c r="I54">
+        <v>386523</v>
+      </c>
+      <c r="J54">
+        <v>541063</v>
+      </c>
+      <c r="K54">
+        <v>3552</v>
+      </c>
+    </row>
+    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>268</v>
       </c>
@@ -2687,8 +3517,23 @@
       <c r="F55" t="s">
         <v>391</v>
       </c>
-    </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G55">
+        <v>1291131</v>
+      </c>
+      <c r="H55">
+        <v>639009</v>
+      </c>
+      <c r="I55">
+        <v>652122</v>
+      </c>
+      <c r="J55">
+        <v>407315</v>
+      </c>
+      <c r="K55">
+        <v>8299.4490000000005</v>
+      </c>
+    </row>
+    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>273</v>
       </c>
@@ -2707,8 +3552,23 @@
       <c r="F56" t="s">
         <v>394</v>
       </c>
-    </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G56">
+        <v>562816</v>
+      </c>
+      <c r="H56">
+        <v>281252</v>
+      </c>
+      <c r="I56">
+        <v>281564</v>
+      </c>
+      <c r="J56">
+        <v>226312</v>
+      </c>
+      <c r="K56">
+        <v>7195.4359999999997</v>
+      </c>
+    </row>
+    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>278</v>
       </c>
@@ -2727,8 +3587,23 @@
       <c r="F57" t="s">
         <v>391</v>
       </c>
-    </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G57">
+        <v>1145187</v>
+      </c>
+      <c r="H57">
+        <v>568553</v>
+      </c>
+      <c r="I57">
+        <v>576634</v>
+      </c>
+      <c r="J57">
+        <v>402016</v>
+      </c>
+      <c r="K57">
+        <v>9605.7639999999992</v>
+      </c>
+    </row>
+    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>283</v>
       </c>
@@ -2747,8 +3622,23 @@
       <c r="F58" t="s">
         <v>393</v>
       </c>
-    </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G58">
+        <v>1360227</v>
+      </c>
+      <c r="H58">
+        <v>646798</v>
+      </c>
+      <c r="I58">
+        <v>713429</v>
+      </c>
+      <c r="J58">
+        <v>750422</v>
+      </c>
+      <c r="K58">
+        <v>1004.092</v>
+      </c>
+    </row>
+    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>288</v>
       </c>
@@ -2767,8 +3657,23 @@
       <c r="F59" t="s">
         <v>393</v>
       </c>
-    </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G59">
+        <v>589428</v>
+      </c>
+      <c r="H59">
+        <v>283474</v>
+      </c>
+      <c r="I59">
+        <v>305954</v>
+      </c>
+      <c r="J59">
+        <v>309823</v>
+      </c>
+      <c r="K59">
+        <v>872.34699999999998</v>
+      </c>
+    </row>
+    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>293</v>
       </c>
@@ -2787,8 +3692,23 @@
       <c r="F60" t="s">
         <v>397</v>
       </c>
-    </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G60">
+        <v>189453</v>
+      </c>
+      <c r="H60">
+        <v>90381</v>
+      </c>
+      <c r="I60">
+        <v>99072</v>
+      </c>
+      <c r="J60">
+        <v>75048</v>
+      </c>
+      <c r="K60">
+        <v>416.70699999999999</v>
+      </c>
+    </row>
+    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>298</v>
       </c>
@@ -2807,8 +3727,23 @@
       <c r="F61" t="s">
         <v>392</v>
       </c>
-    </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G61">
+        <v>638582</v>
+      </c>
+      <c r="H61">
+        <v>313213</v>
+      </c>
+      <c r="I61">
+        <v>325369</v>
+      </c>
+      <c r="J61">
+        <v>294429</v>
+      </c>
+      <c r="K61">
+        <v>3576.4859999999999</v>
+      </c>
+    </row>
+    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>303</v>
       </c>
@@ -2827,8 +3762,23 @@
       <c r="F62" t="s">
         <v>396</v>
       </c>
-    </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G62">
+        <v>325303</v>
+      </c>
+      <c r="H62">
+        <v>161878</v>
+      </c>
+      <c r="I62">
+        <v>163425</v>
+      </c>
+      <c r="J62">
+        <v>109030</v>
+      </c>
+      <c r="K62">
+        <v>2478.9769999999999</v>
+      </c>
+    </row>
+    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>308</v>
       </c>
@@ -2847,8 +3797,23 @@
       <c r="F63" t="s">
         <v>391</v>
       </c>
-    </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G63">
+        <v>202797</v>
+      </c>
+      <c r="H63">
+        <v>96345</v>
+      </c>
+      <c r="I63">
+        <v>106452</v>
+      </c>
+      <c r="J63">
+        <v>80341</v>
+      </c>
+      <c r="K63">
+        <v>822.47799999999995</v>
+      </c>
+    </row>
+    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>313</v>
       </c>
@@ -2867,8 +3832,23 @@
       <c r="F64" t="s">
         <v>392</v>
       </c>
-    </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G64">
+        <v>1454730</v>
+      </c>
+      <c r="H64">
+        <v>723755</v>
+      </c>
+      <c r="I64">
+        <v>730975</v>
+      </c>
+      <c r="J64">
+        <v>410815</v>
+      </c>
+      <c r="K64">
+        <v>8839.9760000000006</v>
+      </c>
+    </row>
+    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>318</v>
       </c>
@@ -2887,8 +3867,23 @@
       <c r="F65" t="s">
         <v>396</v>
       </c>
-    </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G65">
+        <v>1431063</v>
+      </c>
+      <c r="H65">
+        <v>696482</v>
+      </c>
+      <c r="I65">
+        <v>734581</v>
+      </c>
+      <c r="J65">
+        <v>572645</v>
+      </c>
+      <c r="K65">
+        <v>7973.8940000000002</v>
+      </c>
+    </row>
+    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>323</v>
       </c>
@@ -2907,8 +3902,23 @@
       <c r="F66" t="s">
         <v>395</v>
       </c>
-    </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G66">
+        <v>581652</v>
+      </c>
+      <c r="H66">
+        <v>281413</v>
+      </c>
+      <c r="I66">
+        <v>300239</v>
+      </c>
+      <c r="J66">
+        <v>224948</v>
+      </c>
+      <c r="K66">
+        <v>6596.0919999999996</v>
+      </c>
+    </row>
+    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>328</v>
       </c>
@@ -2927,8 +3937,23 @@
       <c r="F67" t="s">
         <v>397</v>
       </c>
-    </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G67">
+        <v>830695</v>
+      </c>
+      <c r="H67">
+        <v>400366</v>
+      </c>
+      <c r="I67">
+        <v>430329</v>
+      </c>
+      <c r="J67">
+        <v>315286</v>
+      </c>
+      <c r="K67">
+        <v>5358.0079999999998</v>
+      </c>
+    </row>
+    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>333</v>
       </c>
@@ -2947,8 +3972,23 @@
       <c r="F68" t="s">
         <v>396</v>
       </c>
-    </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G68">
+        <v>1073663</v>
+      </c>
+      <c r="H68">
+        <v>527555</v>
+      </c>
+      <c r="I68">
+        <v>546108</v>
+      </c>
+      <c r="J68">
+        <v>530712</v>
+      </c>
+      <c r="K68">
+        <v>12891.468999999999</v>
+      </c>
+    </row>
+    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>338</v>
       </c>
@@ -2967,8 +4007,23 @@
       <c r="F69" t="s">
         <v>391</v>
       </c>
-    </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G69">
+        <v>1372910</v>
+      </c>
+      <c r="H69">
+        <v>682371</v>
+      </c>
+      <c r="I69">
+        <v>690539</v>
+      </c>
+      <c r="J69">
+        <v>415987</v>
+      </c>
+      <c r="K69">
+        <v>8124.0559999999996</v>
+      </c>
+    </row>
+    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>343</v>
       </c>
@@ -2987,8 +4042,23 @@
       <c r="F70" t="s">
         <v>395</v>
       </c>
-    </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G70">
+        <v>684140</v>
+      </c>
+      <c r="H70">
+        <v>345732</v>
+      </c>
+      <c r="I70">
+        <v>338408</v>
+      </c>
+      <c r="J70">
+        <v>233293</v>
+      </c>
+      <c r="K70">
+        <v>16406.650000000001</v>
+      </c>
+    </row>
+    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>348</v>
       </c>
@@ -3007,8 +4077,23 @@
       <c r="F71" t="s">
         <v>396</v>
       </c>
-    </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G71">
+        <v>638206</v>
+      </c>
+      <c r="H71">
+        <v>311849</v>
+      </c>
+      <c r="I71">
+        <v>326357</v>
+      </c>
+      <c r="J71">
+        <v>241159</v>
+      </c>
+      <c r="K71">
+        <v>4917.5190000000002</v>
+      </c>
+    </row>
+    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>353</v>
       </c>
@@ -3027,8 +4112,23 @@
       <c r="F72" t="s">
         <v>394</v>
       </c>
-    </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G72">
+        <v>227808</v>
+      </c>
+      <c r="H72">
+        <v>112668</v>
+      </c>
+      <c r="I72">
+        <v>115140</v>
+      </c>
+      <c r="J72">
+        <v>111480</v>
+      </c>
+      <c r="K72">
+        <v>2819</v>
+      </c>
+    </row>
+    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>358</v>
       </c>
@@ -3047,8 +4147,23 @@
       <c r="F73" t="s">
         <v>391</v>
       </c>
-    </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G73">
+        <v>1869806</v>
+      </c>
+      <c r="H73">
+        <v>932120</v>
+      </c>
+      <c r="I73">
+        <v>937686</v>
+      </c>
+      <c r="J73">
+        <v>642015</v>
+      </c>
+      <c r="K73">
+        <v>15774</v>
+      </c>
+    </row>
+    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>363</v>
       </c>
@@ -3067,8 +4182,23 @@
       <c r="F74" t="s">
         <v>391</v>
       </c>
-    </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G74">
+        <v>1563048</v>
+      </c>
+      <c r="H74">
+        <v>772344</v>
+      </c>
+      <c r="I74">
+        <v>790704</v>
+      </c>
+      <c r="J74">
+        <v>548525</v>
+      </c>
+      <c r="K74">
+        <v>11730.302</v>
+      </c>
+    </row>
+    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>368</v>
       </c>
@@ -3087,8 +4217,23 @@
       <c r="F75" t="s">
         <v>395</v>
       </c>
-    </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G75">
+        <v>323860</v>
+      </c>
+      <c r="H75">
+        <v>158139</v>
+      </c>
+      <c r="I75">
+        <v>165721</v>
+      </c>
+      <c r="J75">
+        <v>129514</v>
+      </c>
+      <c r="K75">
+        <v>6730.2460000000001</v>
+      </c>
+    </row>
+    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>373</v>
       </c>
@@ -3107,8 +4252,23 @@
       <c r="F76" t="s">
         <v>395</v>
       </c>
-    </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G76">
+        <v>442949</v>
+      </c>
+      <c r="H76">
+        <v>215648</v>
+      </c>
+      <c r="I76">
+        <v>227301</v>
+      </c>
+      <c r="J76">
+        <v>175738</v>
+      </c>
+      <c r="K76">
+        <v>7838.5919999999996</v>
+      </c>
+    </row>
+    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>378</v>
       </c>
@@ -3127,8 +4287,23 @@
       <c r="F77" t="s">
         <v>396</v>
       </c>
-    </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G77">
+        <v>545913</v>
+      </c>
+      <c r="H77">
+        <v>271480</v>
+      </c>
+      <c r="I77">
+        <v>274433</v>
+      </c>
+      <c r="J77">
+        <v>175981</v>
+      </c>
+      <c r="K77">
+        <v>4521.0780000000004</v>
+      </c>
+    </row>
+    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>383</v>
       </c>
@@ -3146,6 +4321,21 @@
       </c>
       <c r="F78" t="s">
         <v>391</v>
+      </c>
+      <c r="G78">
+        <v>531599</v>
+      </c>
+      <c r="H78">
+        <v>264756</v>
+      </c>
+      <c r="I78">
+        <v>266843</v>
+      </c>
+      <c r="J78">
+        <v>183618</v>
+      </c>
+      <c r="K78">
+        <v>4161.6639999999998</v>
       </c>
     </row>
   </sheetData>

--- a/data/tha_provinces.xlsx
+++ b/data/tha_provinces.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\phata\Documents\GitHub\econvis\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FCD8AE81-8909-44DD-94F4-ADB18CBA6C35}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{363B7D62-751C-4E54-9FC3-7C0CC60C0EDB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1252,7 +1252,7 @@
     <t>n_households</t>
   </si>
   <si>
-    <t>area_sqm</t>
+    <t>area_sqkm</t>
   </si>
 </sst>
 </file>
@@ -1324,7 +1324,7 @@
     <tableColumn id="8" xr3:uid="{24CBBBC1-2050-4961-AD87-B721B80CEFC6}" name="pop_2022_male"/>
     <tableColumn id="9" xr3:uid="{2A231B9E-956E-48B6-9C03-39DADF1F7931}" name="pop_2022_female"/>
     <tableColumn id="10" xr3:uid="{D3EF531F-B33A-4F13-9580-F8FD515E3B04}" name="n_households"/>
-    <tableColumn id="11" xr3:uid="{2DA199E6-BBFD-4D5A-A15E-60BB435CF88C}" name="area_sqm"/>
+    <tableColumn id="11" xr3:uid="{2DA199E6-BBFD-4D5A-A15E-60BB435CF88C}" name="area_sqkm"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1596,7 +1596,7 @@
   <dimension ref="A1:K78"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J8" sqref="J8"/>
+      <selection activeCell="K2" sqref="K2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
